--- a/pre/fater/2/bg/slimatika/_Преленд 7.2 Потолстела на карантине (версия 2) Slimatika BG.xlsx
+++ b/pre/fater/2/bg/slimatika/_Преленд 7.2 Потолстела на карантине (версия 2) Slimatika BG.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>Напълнях под карантина</t>
   </si>
@@ -86,7 +86,19 @@
     <t xml:space="preserve">Влязох в Интернет, за да търся средство, което ще ми помогне бързо да отслабна. И тогава се сблъсках с факта, че много продукти за отслабване имат ограничения. Някои не могат да се използват от хора с високо кръвно налягане, други не се препоръчват при алергии, а трети имат куп странични ефекти - слаба коса, суха кожа и т.н. </t>
   </si>
   <si>
-    <t>Да, освен това много препарати трябва да се приемат много дълго време, за да се постигне резултат. А това не са малко пари!</t>
+    <r>
+      <t xml:space="preserve">Да, освен това много препарати трябва да се приемат </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>много</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> дълго време, за да се постигне резултат. А това не са малко пари!</t>
+    </r>
   </si>
   <si>
     <t>И тогава видях статията за</t>
@@ -131,8 +143,19 @@
     <t>Първото нещо, което ми хареса,</t>
   </si>
   <si>
-    <t xml:space="preserve">това е подробната инструкция, ясна и компетентна. Веднага става ясно как се изчислява дозата за конкретни килограми. Можете да отслабнете по бързата програма (приемате повече
+    <r>
+      <t xml:space="preserve">това е подробната инструкция, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>точна</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> и компетентна. Веднага става ясно как се изчислява дозата за конкретни килограми. Можете да отслабнете по бързата програма (приемате повече
 </t>
+    </r>
   </si>
   <si>
     <t>капки Slimatika</t>
@@ -237,7 +260,18 @@
     <t>И най-интересното е, че мазнините не изчезват равномерно, а в началото те се стопяват от най-проблемните места. Това означава, че продуктът започва да действа върху тези многогодишни мастни слоеве, които, ни се струва, че са с нас завинаги. И ето,  Slimatika  взе, че ги  разтвори всичките!</t>
   </si>
   <si>
-    <t>Отличен и много ефективен продукт. Препоръчвам го на всички! Между другото, Иван ме покани на среща) сега се срещаме и аз съм луда от щастие!!!! PS Първия път поръчах два броя  и доставката беше буквално на втория ден, а при повторна поръчка ми казаха, че доставката ще бъде само след 2 месеца. Поради тази причина  е по-добре да вземете веднага за целия  курс. И  когато  операторът ми се обади, каза, че от 1 септември  ще се повиши цената, но аз  все пак успях да поръчам по 79 BGN  за  брой.</t>
+    <r>
+      <t xml:space="preserve">Отличен и много ефективен продукт. Препоръчвам го на всички! Между другото, Иван ме покани на среща) сега се срещаме и аз съм луда от щастие!!!! PS Първия път поръчах два броя  и доставката беше буквално на втория ден, а при повторна поръчка ми казаха, че доставката ще бъде само след 2 месеца. Поради тази причина  е по-добре да вземете веднага за целия  курс. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Когато</t>
+    </r>
+    <r>
+      <t xml:space="preserve">  операторът ми се обади, каза, че от 1 септември  ще се повиши цената, но аз  все пак успях да поръчам по 79 BGN  за  брой.</t>
+    </r>
   </si>
   <si>
     <t>Нора Каменова 32 г.</t>
@@ -264,10 +298,21 @@
     <t>Стефан</t>
   </si>
   <si>
-    <t>Капките Slimatika ми подействаха вълшебно: първата седмица загубих два килограма, а за един месец - седем. Вече почти четири месеца не приемам препарата, но теглото не се връща. През есента отново ще повторя курса, трябва да сваля още 4-5 килограма. Развълнуван съм от резултата, препоръчвам ги на всичките си познати.</t>
-  </si>
-  <si>
-    <t>капли Slimatika.</t>
+    <r>
+      <t xml:space="preserve">Капките Slimatika ми подействаха вълшебно: първата седмица загубих два килограма, а за един месец - седем. Вече почти четири месеца не приемам препарата, но теглото не се връща. През есента отново ще повторя курса, трябва да сваля още 4-5 килограма. Развълнуван съм от резултата, препоръчвам </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>на всичките</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> си познати</t>
+    </r>
+  </si>
+  <si>
+    <t>капките Slimatika.</t>
   </si>
   <si>
     <t>Много се радвам за Вас, Стефан, отлични резултати)</t>
@@ -295,9 +340,6 @@
   </si>
   <si>
     <t>Една седмица приемах</t>
-  </si>
-  <si>
-    <t>капките Slimatika.</t>
   </si>
   <si>
     <t>След това спрях и килограмите се върнаха. И що за глупост, трябва да пия този продукт цял живот?</t>
@@ -1509,7 +1551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" ht="27.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -1560,7 +1602,7 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1636,12 +1678,12 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -1651,7 +1693,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -1661,7 +1703,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -1671,17 +1713,17 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -1691,7 +1733,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -1701,12 +1743,12 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -1716,32 +1758,32 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -1751,7 +1793,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -1761,7 +1803,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -1771,87 +1813,87 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1"/>
@@ -2723,47 +2765,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
